--- a/biology/Zoologie/British_Ornithologists'_Club/British_Ornithologists'_Club.xlsx
+++ b/biology/Zoologie/British_Ornithologists'_Club/British_Ornithologists'_Club.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>British_Ornithologists%27_Club</t>
+          <t>British_Ornithologists'_Club</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le British Ornithologists' Club (BOC), fondé en 1892, veut promouvoir les relations entre les ornithologues, la diffusion des informations et publie un journal, un Bulletin. Il se spécialise particulièrement sur la taxinomie et la biogéographie aviennes.
 Le club voit le jour le 5 octobre 1892 à la suite d'une réunion de quinze personnes. Philip Lutley Sclater (1829-1913) devient son premier président tandis que Richard Bowdler Sharpe (1847-1909) devient l'éditeur de son Bulletin.
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>British_Ornithologists%27_Club</t>
+          <t>British_Ornithologists'_Club</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -513,6 +525,8 @@
         </is>
       </c>
       <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
